--- a/资料/测试/huawei/小苹果问题记录.xlsx
+++ b/资料/测试/huawei/小苹果问题记录.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C pan\体验内容\20190716 - 新小苹果\5.问题记录\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Project\small-apple\资料\测试\huawei\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBD4DA0-FCE2-44AB-B403-C3E3F1E6BA41}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="1185" windowWidth="28155" windowHeight="15225" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问题记录" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -230,10 +231,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>英文均已翻译，但有些翻译与翻译稿不一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Android：10.0.1.102 debug
 厂家认证云-主线-guide目录
 固件版本：1.4.4
@@ -272,11 +269,91 @@
     <t>添加空调遥控器中，高概率出现，进入“逐个匹配”界面时，红外码数一直显示“-/--”，且功能按钮都置灰，退出重进之后恢复。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家（陈正东）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟测试确认此电视机顶盒是否有暂停功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟测试确认此电视盒子是否有静音功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并没有规定是24小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile定义是10到32个，15个也是合理的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家H5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家DB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试了10次，设置的时间不等，都未发现不成功的现象，怀疑测试用了旧版本的小苹果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已确认，需要华为方跟正东联合处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题已确认，app端发码正确，设备端未收到数据，需正东解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请确认华为测试是否先切换为英文环境，后再添加的小苹果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题未描述清楚，无法定位问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认是华为云端异常导致的，开发未复现此问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发未复现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -336,7 +413,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,7 +482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,11 +517,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 5" xfId="2"/>
-    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 2 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -715,23 +813,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="1"/>
-    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="10.84375" style="1"/>
+    <col min="3" max="3" width="38.4609375" style="1" customWidth="1"/>
     <col min="4" max="4" width="61" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1"/>
-    <col min="6" max="16384" width="10.875" style="2"/>
+    <col min="5" max="5" width="10.84375" style="1"/>
+    <col min="6" max="16384" width="10.84375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -772,40 +870,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="48">
-      <c r="A2" s="6">
+    <row r="2" spans="1:13" s="15" customFormat="1" ht="52">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="14">
         <v>43672</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="48">
+      <c r="M2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="124">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -830,15 +930,19 @@
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="L3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="48">
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="62">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -863,15 +967,19 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="48">
+      <c r="M4" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="93">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -896,15 +1004,19 @@
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="L5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="48">
+      <c r="M5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="52">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -931,13 +1043,17 @@
       <c r="J6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" ht="48">
+      <c r="M6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="52">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -964,13 +1080,17 @@
       <c r="J7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" ht="48">
+      <c r="M7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="52">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -997,13 +1117,17 @@
       <c r="J8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="48">
+      <c r="M8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="70">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1030,14 +1154,16 @@
         <v>36</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="48">
+      <c r="M9" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="52">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1064,13 +1190,17 @@
       <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="48">
+      <c r="M10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="62">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1097,79 +1227,87 @@
       <c r="J11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="48">
-      <c r="A12" s="6">
+      <c r="M11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="15" customFormat="1" ht="52">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="14">
         <v>43669</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" ht="48">
-      <c r="A13" s="6">
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" s="15" customFormat="1" ht="52">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="14">
         <v>43668</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="48">
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="77.5">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1196,13 +1334,17 @@
       <c r="J14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="L14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="48">
+      <c r="M14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="52">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1231,13 +1373,17 @@
       <c r="J15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="L15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" ht="48">
+      <c r="M15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="52">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1273,7 +1419,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Hilink组网,非Hilink组网,两种都有"</formula1>
     </dataValidation>
   </dataValidations>
